--- a/questionnaires/categories/themes.xlsx
+++ b/questionnaires/categories/themes.xlsx
@@ -1,61 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositaries\1.work\IAEA3\questionnaires\categories\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EDDEC6-80D1-4206-B58D-0ACBD589F0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Categories" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Categories" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t xml:space="preserve">title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parentvalue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attachmentname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Food and Agriculture</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Health and Nutrition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Industrial Applications/Radiation technology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water and the Environment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Safety and Security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuclear Knowledge Development and Management</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>Food and Agriculture</t>
+  </si>
+  <si>
+    <t>Health and Nutrition</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Industrial Applications/Radiation technology</t>
+  </si>
+  <si>
+    <t>Water and the Environment</t>
+  </si>
+  <si>
+    <t>Safety and Security</t>
+  </si>
+  <si>
+    <t>Nuclear Knowledge Development and Management</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -91,6 +89,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -372,127 +379,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/questionnaires/categories/themes.xlsx
+++ b/questionnaires/categories/themes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositaries\1.work\IAEA3\questionnaires\categories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EDDEC6-80D1-4206-B58D-0ACBD589F0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E27C3F7-DF3F-479F-AD4C-6B0DB51D8500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Categories" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>value</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>Safety and Security</t>
-  </si>
-  <si>
-    <t>Nuclear Knowledge Development and Management</t>
   </si>
 </sst>
 </file>
@@ -380,13 +377,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -394,7 +391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -402,7 +399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -410,7 +407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -418,7 +415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -426,7 +423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -434,20 +431,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaires/categories/themes.xlsx
+++ b/questionnaires/categories/themes.xlsx
@@ -1,56 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositaries\1.work\IAEA3\questionnaires\categories\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E27C3F7-DF3F-479F-AD4C-6B0DB51D8500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Categories" sheetId="1" r:id="rId1"/>
+    <sheet name="Categories" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>Food and Agriculture</t>
-  </si>
-  <si>
-    <t>Health and Nutrition</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>Industrial Applications/Radiation technology</t>
-  </si>
-  <si>
-    <t>Water and the Environment</t>
-  </si>
-  <si>
-    <t>Safety and Security</t>
+    <t xml:space="preserve">value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food and Agriculture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health and Nutrition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Industrial Applications/Radiation technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water and the Environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Safety and Security</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -86,15 +79,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -376,14 +360,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -391,48 +375,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -441,6 +425,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>